--- a/総合演習資料/4.テスト仕様/結合テスト仕様書_向山.xlsx
+++ b/総合演習資料/4.テスト仕様/結合テスト仕様書_向山.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\201710_技術研修（向山）\JavaWeb.git\総合演習資料\4.テスト仕様\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18015" windowHeight="6705" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18015" windowHeight="6705"/>
   </bookViews>
   <sheets>
     <sheet name="テンプレート" sheetId="3" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="55">
   <si>
     <t>テスト観点</t>
     <rPh sb="3" eb="5">
@@ -363,6 +363,151 @@
   </si>
   <si>
     <t>No</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>社員情報管理システム</t>
+    <rPh sb="0" eb="2">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2017年</t>
+    <rPh sb="4" eb="5">
+      <t>ネン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>社員ID未入力対応</t>
+    <rPh sb="0" eb="2">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワード未入力対応</t>
+    <rPh sb="5" eb="8">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>社員ID・パスワード未入力対応</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>社員IDだけ未入力でログインする</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワードだけ未入力でログインする</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>社員ID・パスワードが未入力でログインする</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログインされずに、メッセージエリアに「社員IDまたはパスワードが正しくありません」と表示される</t>
+    <rPh sb="42" eb="44">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>存在しない社員IDでログインする</t>
+    <rPh sb="0" eb="2">
+      <t>ソンザイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>社員ID誤入力対応</t>
+    <rPh sb="0" eb="2">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワード誤入力対応</t>
+    <rPh sb="5" eb="6">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>存在する社員ID、誤ったパスワードでログインする</t>
+    <rPh sb="0" eb="2">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>アヤマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン成功</t>
+    <rPh sb="4" eb="6">
+      <t>セイコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン成功対応</t>
+    <rPh sb="4" eb="6">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>存在する社員ID、正しいパスワードでログインする</t>
+    <rPh sb="0" eb="2">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>タダ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -615,39 +760,63 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -655,30 +824,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -963,8 +1108,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J54"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -985,17 +1130,17 @@
   <sheetData>
     <row r="1" spans="2:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="2" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="11" t="s">
+      <c r="C2" s="15"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
       <c r="I2" s="5" t="s">
         <v>12</v>
       </c>
@@ -1004,37 +1149,45 @@
       </c>
     </row>
     <row r="3" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="27"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="29">
+        <v>1</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="4" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="9"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="28"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="11">
+        <v>43034</v>
+      </c>
     </row>
     <row r="5" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="9" t="s">
         <v>0</v>
       </c>
       <c r="E5" s="4" t="s">
@@ -1056,70 +1209,106 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:10" ht="36" x14ac:dyDescent="0.15">
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
+      <c r="D6" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>47</v>
+      </c>
       <c r="G6" s="2"/>
       <c r="H6" s="3"/>
-      <c r="I6" s="29"/>
+      <c r="I6" s="12"/>
       <c r="J6" s="3"/>
     </row>
-    <row r="7" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:10" ht="36" x14ac:dyDescent="0.15">
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
+      <c r="D7" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>47</v>
+      </c>
       <c r="G7" s="2"/>
       <c r="H7" s="3"/>
-      <c r="I7" s="29"/>
+      <c r="I7" s="12"/>
       <c r="J7" s="3"/>
     </row>
-    <row r="8" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:10" ht="36" x14ac:dyDescent="0.15">
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
+      <c r="D8" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>47</v>
+      </c>
       <c r="G8" s="2"/>
       <c r="H8" s="3"/>
-      <c r="I8" s="29"/>
+      <c r="I8" s="12"/>
       <c r="J8" s="3"/>
     </row>
-    <row r="9" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:10" ht="36" x14ac:dyDescent="0.15">
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
+      <c r="D9" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>47</v>
+      </c>
       <c r="G9" s="2"/>
       <c r="H9" s="3"/>
-      <c r="I9" s="29"/>
+      <c r="I9" s="12"/>
       <c r="J9" s="3"/>
     </row>
-    <row r="10" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:10" ht="36" x14ac:dyDescent="0.15">
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
+      <c r="D10" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>47</v>
+      </c>
       <c r="G10" s="2"/>
       <c r="H10" s="3"/>
-      <c r="I10" s="29"/>
+      <c r="I10" s="12"/>
       <c r="J10" s="3"/>
     </row>
-    <row r="11" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:10" ht="24" x14ac:dyDescent="0.15">
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
+      <c r="D11" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>52</v>
+      </c>
       <c r="G11" s="2"/>
       <c r="H11" s="3"/>
-      <c r="I11" s="29"/>
+      <c r="I11" s="12"/>
       <c r="J11" s="3"/>
     </row>
     <row r="12" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1130,7 +1319,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="2"/>
       <c r="H12" s="3"/>
-      <c r="I12" s="29"/>
+      <c r="I12" s="12"/>
       <c r="J12" s="3"/>
     </row>
     <row r="13" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1141,7 +1330,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="2"/>
       <c r="H13" s="3"/>
-      <c r="I13" s="29"/>
+      <c r="I13" s="12"/>
       <c r="J13" s="3"/>
     </row>
     <row r="14" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -1152,7 +1341,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="2"/>
       <c r="H14" s="3"/>
-      <c r="I14" s="29"/>
+      <c r="I14" s="12"/>
       <c r="J14" s="3"/>
     </row>
     <row r="15" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -1163,7 +1352,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="2"/>
       <c r="H15" s="3"/>
-      <c r="I15" s="29"/>
+      <c r="I15" s="12"/>
       <c r="J15" s="3"/>
     </row>
     <row r="16" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -1174,7 +1363,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="2"/>
       <c r="H16" s="3"/>
-      <c r="I16" s="29"/>
+      <c r="I16" s="12"/>
       <c r="J16" s="3"/>
     </row>
     <row r="17" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -1185,7 +1374,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="2"/>
       <c r="H17" s="3"/>
-      <c r="I17" s="29"/>
+      <c r="I17" s="12"/>
       <c r="J17" s="3"/>
     </row>
     <row r="18" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -1196,7 +1385,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="2"/>
       <c r="H18" s="3"/>
-      <c r="I18" s="29"/>
+      <c r="I18" s="12"/>
       <c r="J18" s="3"/>
     </row>
     <row r="19" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -1207,7 +1396,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="2"/>
       <c r="H19" s="3"/>
-      <c r="I19" s="29"/>
+      <c r="I19" s="12"/>
       <c r="J19" s="3"/>
     </row>
     <row r="20" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -1218,7 +1407,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="2"/>
       <c r="H20" s="3"/>
-      <c r="I20" s="29"/>
+      <c r="I20" s="12"/>
       <c r="J20" s="3"/>
     </row>
     <row r="21" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -1229,7 +1418,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="2"/>
       <c r="H21" s="3"/>
-      <c r="I21" s="29"/>
+      <c r="I21" s="12"/>
       <c r="J21" s="3"/>
     </row>
     <row r="22" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -1240,7 +1429,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="2"/>
       <c r="H22" s="3"/>
-      <c r="I22" s="29"/>
+      <c r="I22" s="12"/>
       <c r="J22" s="3"/>
     </row>
     <row r="23" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -1251,7 +1440,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="2"/>
       <c r="H23" s="3"/>
-      <c r="I23" s="29"/>
+      <c r="I23" s="12"/>
       <c r="J23" s="3"/>
     </row>
     <row r="24" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -1262,7 +1451,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="2"/>
       <c r="H24" s="3"/>
-      <c r="I24" s="29"/>
+      <c r="I24" s="12"/>
       <c r="J24" s="3"/>
     </row>
     <row r="25" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -1273,7 +1462,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="2"/>
       <c r="H25" s="3"/>
-      <c r="I25" s="29"/>
+      <c r="I25" s="12"/>
       <c r="J25" s="3"/>
     </row>
     <row r="26" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -1284,7 +1473,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="2"/>
       <c r="H26" s="3"/>
-      <c r="I26" s="29"/>
+      <c r="I26" s="12"/>
       <c r="J26" s="3"/>
     </row>
     <row r="27" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -1295,7 +1484,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="2"/>
       <c r="H27" s="3"/>
-      <c r="I27" s="29"/>
+      <c r="I27" s="12"/>
       <c r="J27" s="3"/>
     </row>
     <row r="28" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -1306,7 +1495,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="2"/>
       <c r="H28" s="3"/>
-      <c r="I28" s="29"/>
+      <c r="I28" s="12"/>
       <c r="J28" s="3"/>
     </row>
     <row r="29" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -1317,7 +1506,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="2"/>
       <c r="H29" s="3"/>
-      <c r="I29" s="29"/>
+      <c r="I29" s="12"/>
       <c r="J29" s="3"/>
     </row>
     <row r="30" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -1328,7 +1517,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="2"/>
       <c r="H30" s="3"/>
-      <c r="I30" s="29"/>
+      <c r="I30" s="12"/>
       <c r="J30" s="3"/>
     </row>
     <row r="31" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -1339,7 +1528,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="2"/>
       <c r="H31" s="3"/>
-      <c r="I31" s="29"/>
+      <c r="I31" s="12"/>
       <c r="J31" s="3"/>
     </row>
     <row r="32" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -1350,7 +1539,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="2"/>
       <c r="H32" s="3"/>
-      <c r="I32" s="29"/>
+      <c r="I32" s="12"/>
       <c r="J32" s="3"/>
     </row>
     <row r="33" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -1361,7 +1550,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="2"/>
       <c r="H33" s="3"/>
-      <c r="I33" s="29"/>
+      <c r="I33" s="12"/>
       <c r="J33" s="3"/>
     </row>
     <row r="34" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -1372,7 +1561,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="2"/>
       <c r="H34" s="3"/>
-      <c r="I34" s="29"/>
+      <c r="I34" s="12"/>
       <c r="J34" s="3"/>
     </row>
     <row r="35" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -1383,7 +1572,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="2"/>
       <c r="H35" s="3"/>
-      <c r="I35" s="29"/>
+      <c r="I35" s="12"/>
       <c r="J35" s="3"/>
     </row>
     <row r="36" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -1394,7 +1583,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="2"/>
       <c r="H36" s="3"/>
-      <c r="I36" s="29"/>
+      <c r="I36" s="12"/>
       <c r="J36" s="3"/>
     </row>
     <row r="37" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -1405,7 +1594,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="2"/>
       <c r="H37" s="3"/>
-      <c r="I37" s="29"/>
+      <c r="I37" s="12"/>
       <c r="J37" s="3"/>
     </row>
     <row r="38" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -1416,7 +1605,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="2"/>
       <c r="H38" s="3"/>
-      <c r="I38" s="29"/>
+      <c r="I38" s="12"/>
       <c r="J38" s="3"/>
     </row>
     <row r="39" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -1427,7 +1616,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="2"/>
       <c r="H39" s="3"/>
-      <c r="I39" s="29"/>
+      <c r="I39" s="12"/>
       <c r="J39" s="3"/>
     </row>
     <row r="40" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -1438,7 +1627,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="2"/>
       <c r="H40" s="3"/>
-      <c r="I40" s="29"/>
+      <c r="I40" s="12"/>
       <c r="J40" s="3"/>
     </row>
     <row r="41" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -1449,7 +1638,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="2"/>
       <c r="H41" s="3"/>
-      <c r="I41" s="29"/>
+      <c r="I41" s="12"/>
       <c r="J41" s="3"/>
     </row>
     <row r="42" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -1460,7 +1649,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="2"/>
       <c r="H42" s="3"/>
-      <c r="I42" s="29"/>
+      <c r="I42" s="12"/>
       <c r="J42" s="3"/>
     </row>
     <row r="43" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -1471,7 +1660,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="2"/>
       <c r="H43" s="3"/>
-      <c r="I43" s="29"/>
+      <c r="I43" s="12"/>
       <c r="J43" s="3"/>
     </row>
     <row r="44" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -1482,7 +1671,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="2"/>
       <c r="H44" s="3"/>
-      <c r="I44" s="29"/>
+      <c r="I44" s="12"/>
       <c r="J44" s="3"/>
     </row>
     <row r="45" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -1493,7 +1682,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="2"/>
       <c r="H45" s="3"/>
-      <c r="I45" s="29"/>
+      <c r="I45" s="12"/>
       <c r="J45" s="3"/>
     </row>
     <row r="46" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -1504,7 +1693,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="2"/>
       <c r="H46" s="3"/>
-      <c r="I46" s="29"/>
+      <c r="I46" s="12"/>
       <c r="J46" s="3"/>
     </row>
     <row r="47" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -1515,7 +1704,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="2"/>
       <c r="H47" s="3"/>
-      <c r="I47" s="29"/>
+      <c r="I47" s="12"/>
       <c r="J47" s="3"/>
     </row>
     <row r="48" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -1526,7 +1715,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="2"/>
       <c r="H48" s="3"/>
-      <c r="I48" s="29"/>
+      <c r="I48" s="12"/>
       <c r="J48" s="3"/>
     </row>
     <row r="49" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -1537,7 +1726,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="2"/>
       <c r="H49" s="3"/>
-      <c r="I49" s="29"/>
+      <c r="I49" s="12"/>
       <c r="J49" s="3"/>
     </row>
     <row r="50" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -1548,7 +1737,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="2"/>
       <c r="H50" s="3"/>
-      <c r="I50" s="29"/>
+      <c r="I50" s="12"/>
       <c r="J50" s="3"/>
     </row>
     <row r="51" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -1559,7 +1748,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="2"/>
       <c r="H51" s="3"/>
-      <c r="I51" s="29"/>
+      <c r="I51" s="12"/>
       <c r="J51" s="3"/>
     </row>
     <row r="52" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -1570,7 +1759,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="2"/>
       <c r="H52" s="3"/>
-      <c r="I52" s="29"/>
+      <c r="I52" s="12"/>
       <c r="J52" s="3"/>
     </row>
     <row r="53" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -1581,7 +1770,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="2"/>
       <c r="H53" s="3"/>
-      <c r="I53" s="29"/>
+      <c r="I53" s="12"/>
       <c r="J53" s="3"/>
     </row>
     <row r="54" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -1592,7 +1781,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="2"/>
       <c r="H54" s="3"/>
-      <c r="I54" s="29"/>
+      <c r="I54" s="12"/>
       <c r="J54" s="3"/>
     </row>
   </sheetData>
@@ -1613,8 +1802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1635,17 +1824,17 @@
   <sheetData>
     <row r="1" spans="2:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="2" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="11" t="s">
+      <c r="C2" s="15"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
       <c r="I2" s="5" t="s">
         <v>12</v>
       </c>
@@ -1654,32 +1843,32 @@
       </c>
     </row>
     <row r="3" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="17" t="s">
+      <c r="C3" s="18"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="27" t="s">
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="10" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="4" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="9"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="28">
+      <c r="B4" s="20"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="11">
         <v>43028</v>
       </c>
     </row>
@@ -1687,10 +1876,10 @@
       <c r="B5" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="9" t="s">
         <v>0</v>
       </c>
       <c r="E5" s="4" t="s">
@@ -1732,7 +1921,7 @@
         <v>15</v>
       </c>
       <c r="H6" s="3"/>
-      <c r="I6" s="29">
+      <c r="I6" s="12">
         <v>43030</v>
       </c>
       <c r="J6" s="3"/>
@@ -1757,7 +1946,7 @@
         <v>15</v>
       </c>
       <c r="H7" s="3"/>
-      <c r="I7" s="30"/>
+      <c r="I7" s="13"/>
       <c r="J7" s="3"/>
     </row>
     <row r="8" spans="2:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1780,7 +1969,7 @@
         <v>20</v>
       </c>
       <c r="H8" s="3"/>
-      <c r="I8" s="30"/>
+      <c r="I8" s="13"/>
       <c r="J8" s="3"/>
     </row>
     <row r="9" spans="2:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1803,7 +1992,7 @@
         <v>20</v>
       </c>
       <c r="H9" s="3"/>
-      <c r="I9" s="30"/>
+      <c r="I9" s="13"/>
       <c r="J9" s="3"/>
     </row>
     <row r="10" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1826,7 +2015,7 @@
         <v>15</v>
       </c>
       <c r="H10" s="3"/>
-      <c r="I10" s="30"/>
+      <c r="I10" s="13"/>
       <c r="J10" s="3"/>
     </row>
     <row r="11" spans="2:10" ht="33" customHeight="1" x14ac:dyDescent="0.15">
@@ -1849,7 +2038,7 @@
         <v>15</v>
       </c>
       <c r="H11" s="3"/>
-      <c r="I11" s="30"/>
+      <c r="I11" s="13"/>
       <c r="J11" s="3"/>
     </row>
     <row r="12" spans="2:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1872,7 +2061,7 @@
         <v>15</v>
       </c>
       <c r="H12" s="3"/>
-      <c r="I12" s="30"/>
+      <c r="I12" s="13"/>
       <c r="J12" s="3"/>
     </row>
     <row r="13" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -1883,7 +2072,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="2"/>
       <c r="H13" s="3"/>
-      <c r="I13" s="30"/>
+      <c r="I13" s="13"/>
       <c r="J13" s="3"/>
     </row>
     <row r="14" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -1894,7 +2083,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="2"/>
       <c r="H14" s="3"/>
-      <c r="I14" s="30"/>
+      <c r="I14" s="13"/>
       <c r="J14" s="3"/>
     </row>
     <row r="15" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -1905,7 +2094,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="2"/>
       <c r="H15" s="3"/>
-      <c r="I15" s="30"/>
+      <c r="I15" s="13"/>
       <c r="J15" s="3"/>
     </row>
     <row r="16" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -1916,7 +2105,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="2"/>
       <c r="H16" s="3"/>
-      <c r="I16" s="30"/>
+      <c r="I16" s="13"/>
       <c r="J16" s="3"/>
     </row>
     <row r="17" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -1927,7 +2116,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="2"/>
       <c r="H17" s="3"/>
-      <c r="I17" s="30"/>
+      <c r="I17" s="13"/>
       <c r="J17" s="3"/>
     </row>
     <row r="18" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -1938,7 +2127,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="2"/>
       <c r="H18" s="3"/>
-      <c r="I18" s="30"/>
+      <c r="I18" s="13"/>
       <c r="J18" s="3"/>
     </row>
     <row r="19" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -1949,7 +2138,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="2"/>
       <c r="H19" s="3"/>
-      <c r="I19" s="30"/>
+      <c r="I19" s="13"/>
       <c r="J19" s="3"/>
     </row>
     <row r="20" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -1960,7 +2149,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="2"/>
       <c r="H20" s="3"/>
-      <c r="I20" s="30"/>
+      <c r="I20" s="13"/>
       <c r="J20" s="3"/>
     </row>
     <row r="21" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -1971,7 +2160,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="2"/>
       <c r="H21" s="3"/>
-      <c r="I21" s="30"/>
+      <c r="I21" s="13"/>
       <c r="J21" s="3"/>
     </row>
     <row r="22" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -1982,7 +2171,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="2"/>
       <c r="H22" s="3"/>
-      <c r="I22" s="30"/>
+      <c r="I22" s="13"/>
       <c r="J22" s="3"/>
     </row>
     <row r="23" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -1993,7 +2182,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="2"/>
       <c r="H23" s="3"/>
-      <c r="I23" s="30"/>
+      <c r="I23" s="13"/>
       <c r="J23" s="3"/>
     </row>
     <row r="24" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -2004,7 +2193,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="2"/>
       <c r="H24" s="3"/>
-      <c r="I24" s="30"/>
+      <c r="I24" s="13"/>
       <c r="J24" s="3"/>
     </row>
     <row r="25" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -2015,7 +2204,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="2"/>
       <c r="H25" s="3"/>
-      <c r="I25" s="30"/>
+      <c r="I25" s="13"/>
       <c r="J25" s="3"/>
     </row>
     <row r="26" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -2026,7 +2215,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="2"/>
       <c r="H26" s="3"/>
-      <c r="I26" s="30"/>
+      <c r="I26" s="13"/>
       <c r="J26" s="3"/>
     </row>
     <row r="27" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -2037,7 +2226,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="2"/>
       <c r="H27" s="3"/>
-      <c r="I27" s="30"/>
+      <c r="I27" s="13"/>
       <c r="J27" s="3"/>
     </row>
     <row r="28" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -2048,7 +2237,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="2"/>
       <c r="H28" s="3"/>
-      <c r="I28" s="30"/>
+      <c r="I28" s="13"/>
       <c r="J28" s="3"/>
     </row>
     <row r="29" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -2059,7 +2248,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="2"/>
       <c r="H29" s="3"/>
-      <c r="I29" s="30"/>
+      <c r="I29" s="13"/>
       <c r="J29" s="3"/>
     </row>
     <row r="30" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -2070,7 +2259,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="2"/>
       <c r="H30" s="3"/>
-      <c r="I30" s="30"/>
+      <c r="I30" s="13"/>
       <c r="J30" s="3"/>
     </row>
     <row r="31" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -2081,7 +2270,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="2"/>
       <c r="H31" s="3"/>
-      <c r="I31" s="30"/>
+      <c r="I31" s="13"/>
       <c r="J31" s="3"/>
     </row>
     <row r="32" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -2092,7 +2281,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="2"/>
       <c r="H32" s="3"/>
-      <c r="I32" s="30"/>
+      <c r="I32" s="13"/>
       <c r="J32" s="3"/>
     </row>
     <row r="33" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -2103,7 +2292,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="2"/>
       <c r="H33" s="3"/>
-      <c r="I33" s="30"/>
+      <c r="I33" s="13"/>
       <c r="J33" s="3"/>
     </row>
     <row r="34" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -2114,7 +2303,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="2"/>
       <c r="H34" s="3"/>
-      <c r="I34" s="30"/>
+      <c r="I34" s="13"/>
       <c r="J34" s="3"/>
     </row>
     <row r="35" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -2125,7 +2314,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="2"/>
       <c r="H35" s="3"/>
-      <c r="I35" s="30"/>
+      <c r="I35" s="13"/>
       <c r="J35" s="3"/>
     </row>
     <row r="36" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -2136,7 +2325,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="2"/>
       <c r="H36" s="3"/>
-      <c r="I36" s="30"/>
+      <c r="I36" s="13"/>
       <c r="J36" s="3"/>
     </row>
     <row r="37" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -2147,7 +2336,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="2"/>
       <c r="H37" s="3"/>
-      <c r="I37" s="30"/>
+      <c r="I37" s="13"/>
       <c r="J37" s="3"/>
     </row>
     <row r="38" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -2158,7 +2347,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="2"/>
       <c r="H38" s="3"/>
-      <c r="I38" s="30"/>
+      <c r="I38" s="13"/>
       <c r="J38" s="3"/>
     </row>
     <row r="39" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -2169,7 +2358,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="2"/>
       <c r="H39" s="3"/>
-      <c r="I39" s="30"/>
+      <c r="I39" s="13"/>
       <c r="J39" s="3"/>
     </row>
     <row r="40" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -2180,7 +2369,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="2"/>
       <c r="H40" s="3"/>
-      <c r="I40" s="30"/>
+      <c r="I40" s="13"/>
       <c r="J40" s="3"/>
     </row>
     <row r="41" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -2191,7 +2380,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="2"/>
       <c r="H41" s="3"/>
-      <c r="I41" s="30"/>
+      <c r="I41" s="13"/>
       <c r="J41" s="3"/>
     </row>
     <row r="42" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -2202,7 +2391,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="2"/>
       <c r="H42" s="3"/>
-      <c r="I42" s="30"/>
+      <c r="I42" s="13"/>
       <c r="J42" s="3"/>
     </row>
     <row r="43" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -2213,7 +2402,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="2"/>
       <c r="H43" s="3"/>
-      <c r="I43" s="30"/>
+      <c r="I43" s="13"/>
       <c r="J43" s="3"/>
     </row>
     <row r="44" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -2224,7 +2413,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="2"/>
       <c r="H44" s="3"/>
-      <c r="I44" s="30"/>
+      <c r="I44" s="13"/>
       <c r="J44" s="3"/>
     </row>
     <row r="45" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -2235,7 +2424,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="2"/>
       <c r="H45" s="3"/>
-      <c r="I45" s="30"/>
+      <c r="I45" s="13"/>
       <c r="J45" s="3"/>
     </row>
     <row r="46" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -2246,7 +2435,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="2"/>
       <c r="H46" s="3"/>
-      <c r="I46" s="30"/>
+      <c r="I46" s="13"/>
       <c r="J46" s="3"/>
     </row>
     <row r="47" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -2257,7 +2446,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="2"/>
       <c r="H47" s="3"/>
-      <c r="I47" s="30"/>
+      <c r="I47" s="13"/>
       <c r="J47" s="3"/>
     </row>
     <row r="48" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -2268,7 +2457,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="2"/>
       <c r="H48" s="3"/>
-      <c r="I48" s="30"/>
+      <c r="I48" s="13"/>
       <c r="J48" s="3"/>
     </row>
     <row r="49" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -2279,7 +2468,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="2"/>
       <c r="H49" s="3"/>
-      <c r="I49" s="30"/>
+      <c r="I49" s="13"/>
       <c r="J49" s="3"/>
     </row>
     <row r="50" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -2290,7 +2479,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="2"/>
       <c r="H50" s="3"/>
-      <c r="I50" s="30"/>
+      <c r="I50" s="13"/>
       <c r="J50" s="3"/>
     </row>
     <row r="51" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -2301,7 +2490,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="2"/>
       <c r="H51" s="3"/>
-      <c r="I51" s="30"/>
+      <c r="I51" s="13"/>
       <c r="J51" s="3"/>
     </row>
     <row r="52" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -2312,7 +2501,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="2"/>
       <c r="H52" s="3"/>
-      <c r="I52" s="30"/>
+      <c r="I52" s="13"/>
       <c r="J52" s="3"/>
     </row>
     <row r="53" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -2323,7 +2512,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="2"/>
       <c r="H53" s="3"/>
-      <c r="I53" s="30"/>
+      <c r="I53" s="13"/>
       <c r="J53" s="3"/>
     </row>
     <row r="54" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -2334,7 +2523,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="2"/>
       <c r="H54" s="3"/>
-      <c r="I54" s="30"/>
+      <c r="I54" s="13"/>
       <c r="J54" s="3"/>
     </row>
   </sheetData>

--- a/総合演習資料/4.テスト仕様/結合テスト仕様書_向山.xlsx
+++ b/総合演習資料/4.テスト仕様/結合テスト仕様書_向山.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="64">
   <si>
     <t>テスト観点</t>
     <rPh sb="3" eb="5">
@@ -507,6 +507,107 @@
     </rPh>
     <rPh sb="9" eb="10">
       <t>タダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">EmployeeSystemLogic
+EmployeeSystemDAO
+login.jsp </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EmployeeSystemLogic
+EmployeeSystemDAO
+login.jsp 
+employeeSystemMain.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>詳細画面で表示する社員IDが存在しない</t>
+    <rPh sb="0" eb="2">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ソンザイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メイン画面に遷移し、メッセージエリアに「該当の社員IDは存在しません」と表示される</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">EmployeeSystemLogic
+EmployeeSystemDAO
+login.jsp 
+employeeViewer.jsp  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>詳細画面で表示する社員IDが存在する</t>
+    <rPh sb="0" eb="2">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ソンザイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>URL直接指定 失敗</t>
+    <rPh sb="8" eb="10">
+      <t>シッパイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>URL直接指定 成功</t>
+    <rPh sb="8" eb="10">
+      <t>セイコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>社員情報詳細画面へ遷移し、社員情報が表示される</t>
+    <rPh sb="9" eb="11">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1108,8 +1209,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1210,8 +1311,12 @@
       </c>
     </row>
     <row r="6" spans="2:10" ht="36" x14ac:dyDescent="0.15">
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>55</v>
+      </c>
       <c r="D6" s="8" t="s">
         <v>41</v>
       </c>
@@ -1227,8 +1332,12 @@
       <c r="J6" s="3"/>
     </row>
     <row r="7" spans="2:10" ht="36" x14ac:dyDescent="0.15">
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
+      <c r="B7" s="3">
+        <v>2</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>55</v>
+      </c>
       <c r="D7" s="8" t="s">
         <v>42</v>
       </c>
@@ -1244,8 +1353,12 @@
       <c r="J7" s="3"/>
     </row>
     <row r="8" spans="2:10" ht="36" x14ac:dyDescent="0.15">
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
+      <c r="B8" s="3">
+        <v>3</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>55</v>
+      </c>
       <c r="D8" s="8" t="s">
         <v>43</v>
       </c>
@@ -1261,8 +1374,12 @@
       <c r="J8" s="3"/>
     </row>
     <row r="9" spans="2:10" ht="36" x14ac:dyDescent="0.15">
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
+      <c r="B9" s="3">
+        <v>4</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>55</v>
+      </c>
       <c r="D9" s="8" t="s">
         <v>49</v>
       </c>
@@ -1278,8 +1395,12 @@
       <c r="J9" s="3"/>
     </row>
     <row r="10" spans="2:10" ht="36" x14ac:dyDescent="0.15">
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
+      <c r="B10" s="3">
+        <v>5</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>55</v>
+      </c>
       <c r="D10" s="8" t="s">
         <v>50</v>
       </c>
@@ -1294,9 +1415,13 @@
       <c r="I10" s="12"/>
       <c r="J10" s="3"/>
     </row>
-    <row r="11" spans="2:10" ht="24" x14ac:dyDescent="0.15">
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
+    <row r="11" spans="2:10" ht="60" x14ac:dyDescent="0.15">
+      <c r="B11" s="3">
+        <v>6</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>56</v>
+      </c>
       <c r="D11" s="8" t="s">
         <v>53</v>
       </c>
@@ -1311,30 +1436,52 @@
       <c r="I11" s="12"/>
       <c r="J11" s="3"/>
     </row>
-    <row r="12" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
+    <row r="12" spans="2:10" ht="60" x14ac:dyDescent="0.15">
+      <c r="B12" s="3">
+        <v>7</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>58</v>
+      </c>
       <c r="G12" s="2"/>
       <c r="H12" s="3"/>
       <c r="I12" s="12"/>
       <c r="J12" s="3"/>
     </row>
-    <row r="13" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
+    <row r="13" spans="2:10" ht="48" x14ac:dyDescent="0.15">
+      <c r="B13" s="3">
+        <v>8</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>63</v>
+      </c>
       <c r="G13" s="2"/>
       <c r="H13" s="3"/>
       <c r="I13" s="12"/>
       <c r="J13" s="3"/>
     </row>
     <row r="14" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="3"/>
+      <c r="B14" s="3">
+        <v>9</v>
+      </c>
       <c r="C14" s="3"/>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -1345,7 +1492,9 @@
       <c r="J14" s="3"/>
     </row>
     <row r="15" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="3"/>
+      <c r="B15" s="3">
+        <v>10</v>
+      </c>
       <c r="C15" s="3"/>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -1356,7 +1505,9 @@
       <c r="J15" s="3"/>
     </row>
     <row r="16" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="3"/>
+      <c r="B16" s="3">
+        <v>11</v>
+      </c>
       <c r="C16" s="3"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -1367,7 +1518,9 @@
       <c r="J16" s="3"/>
     </row>
     <row r="17" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="3"/>
+      <c r="B17" s="3">
+        <v>12</v>
+      </c>
       <c r="C17" s="3"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
